--- a/BalanceSheet/GE_bal.xlsx
+++ b/BalanceSheet/GE_bal.xlsx
@@ -5663,7 +5663,7 @@
         <v>40935000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>57650000000.0</v>
+        <v>45183000000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>15712000000.0</v>
@@ -5790,7 +5790,7 @@
         <v>88221000000.0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>94044000000.0</v>
+        <v>90882000000.0</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>91747000000.0</v>
